--- a/Sahibinden Ad Results/Data/Config.xlsx
+++ b/Sahibinden Ad Results/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\Documents\GitHub\UiPath\Sahibinden\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\Documents\GitHub\UiPath\Sahibinden Ad Results\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C6D321-9821-480A-BCF7-35939BCBC64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A680D-C56E-4CB1-9444-BA0D5F0C7C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>Chrome; Excel</t>
   </si>
   <si>
-    <t xml:space="preserve">Credential for </t>
-  </si>
-  <si>
     <t>URL_LoginLink</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>İlan Listesi Hakkında</t>
+  </si>
+  <si>
+    <t>Credential for Sahibinden Login</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -781,7 +781,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>22</v>
@@ -792,7 +792,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>32</v>
@@ -816,90 +816,90 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>57</v>
@@ -918,10 +918,10 @@
         <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -929,7 +929,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>55</v>
@@ -940,7 +940,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>56</v>
@@ -951,7 +951,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>47</v>
@@ -959,24 +959,24 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
